--- a/results/I3_N5_M3_T30_C200_DepCentral_s3_res_fix.xlsx
+++ b/results/I3_N5_M3_T30_C200_DepCentral_s3_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.18571823728904</v>
+        <v>29.94820739395058</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006999969482421875</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26.18571823728904</v>
+        <v>25.94820739395058</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.5886662891656019</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.5886662891656019</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,17 @@
         <is>
           <t>alpha</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -656,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +700,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -700,7 +711,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -874,7 +885,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23.10555953090583</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +893,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>23.10555953090583</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>26.23570364914818</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>26.8839324825959</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +917,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>26.55091596648896</v>
+        <v>25.4627824732683</v>
       </c>
     </row>
     <row r="8">
@@ -914,7 +925,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>28.17507627316046</v>
+        <v>28.40611391909631</v>
       </c>
     </row>
     <row r="9">
@@ -930,7 +941,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>29.50875628620634</v>
+        <v>29.8477529289892</v>
       </c>
     </row>
   </sheetData>
@@ -944,7 +955,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -972,6 +983,20 @@
         <is>
           <t>y</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1073,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>151.4099999999994</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>156.3</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>150.5049999999994</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>154.0549999999994</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1117,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>149.7249999999994</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
@@ -1128,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>85.68999999999978</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13">
@@ -1139,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>96.85999999999979</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>81.12999999999978</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
@@ -1161,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>89.87499999999979</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16">
@@ -1172,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>86.53999999999978</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17">
@@ -1183,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>45.6</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18">
@@ -1194,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>38.72499999999985</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19">
@@ -1205,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>42.39499999999985</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20">
@@ -1216,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>38.17499999999986</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21">
@@ -1227,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>41.26499999999986</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>158.8950000000009</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23">
@@ -1249,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>160.3750000000009</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
@@ -1260,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>165.9450000000009</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25">
@@ -1271,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>164.0850000000009</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26">
@@ -1282,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>167.35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27">
@@ -1293,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>91.57500000000059</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28">
@@ -1304,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>84.17000000000058</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29">
@@ -1315,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>84.75500000000059</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30">
@@ -1326,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>93.49500000000059</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31">
@@ -1337,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>92.76500000000058</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32">
@@ -1348,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>151.4099999999994</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33">
@@ -1359,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>156.3</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34">
@@ -1370,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>150.5049999999994</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35">
@@ -1381,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>154.0549999999994</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36">
@@ -1392,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>149.7249999999994</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37">
@@ -1458,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>158.8950000000009</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43">
@@ -1469,7 +1494,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>160.3750000000009</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44">
@@ -1480,7 +1505,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>165.9450000000009</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45">
@@ -1491,7 +1516,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>164.0850000000009</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46">
@@ -1502,7 +1527,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>167.35</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1560,7 +1585,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2028,7 +2053,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2053,6 +2078,17 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
